--- a/inputs/VolumesExcel_06_07_2022/it_IT/Paesi Bassi VOLUME 18_it_IT.xlsx
+++ b/inputs/VolumesExcel_06_07_2022/it_IT/Paesi Bassi VOLUME 18_it_IT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2df41c4215c7d11/VolumesExcel/it_IT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jelleschipper/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_4468D969D252D6FFB9E4D93444F6BE3EEA39F864" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C25C1BC8-4A9C-9C4C-B3AA-2B0A8C382F7D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E8B8E8B-8B53-FD40-8455-8CF703737CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="1116">
   <si>
     <t>ms293_title</t>
   </si>
@@ -3473,7 +3473,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3489,9 +3489,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3529,9 +3529,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3564,26 +3564,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3616,26 +3599,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3811,8 +3777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K694"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A428" zoomScale="84" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B439" sqref="B439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12769,9 +12735,12 @@
         <v>977</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>978</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C433">
         <v>1847</v>
